--- a/Trab02-Dimensional_BigData/dw_dimensional/Trabalho 02 - Modelagem Dimensional Dindin Agora.xlsx
+++ b/Trab02-Dimensional_BigData/dw_dimensional/Trabalho 02 - Modelagem Dimensional Dindin Agora.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Speca\Projects\fiap-ai\mba_IA_ML-proj_int-grupoC\Arquitetura de Dados\Trabalho 02 - Dimensional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Speca\Projects\fiap-ai\arq_dados\mba_IA_ML-proj_int-grupoC\Trab02-Dimensional_BigData\dw_dimensional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61574B-3FB5-4DE6-BC65-B8608E834907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D2AF3-B0F3-4F0F-A13A-4C36BF76AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Análise do Faturamento" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Modelagem Dimensional" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>1. Análise do ?</t>
   </si>
@@ -83,9 +82,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Idade</t>
-  </si>
-  <si>
     <t>Feriados</t>
   </si>
   <si>
@@ -110,97 +106,7 @@
     <t>9. Quanto fazer a carga</t>
   </si>
   <si>
-    <t>Dimensão Hospede</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>Paulo</t>
-  </si>
-  <si>
-    <t>Renda</t>
-  </si>
-  <si>
-    <t>Stado_civil</t>
-  </si>
-  <si>
-    <t>Solteiro</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>Dimensão tempo</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>Fato_hospedagem</t>
-  </si>
-  <si>
     <t>Ano</t>
-  </si>
-  <si>
-    <t>Feriado</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>FK_Hospede</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>15h</t>
-  </si>
-  <si>
-    <t>FK_Funcionario</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>FK_Tempo</t>
-  </si>
-  <si>
-    <t>Data_inicio</t>
-  </si>
-  <si>
-    <t>Qtd_dias</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Dimesã Funcioanrio</t>
-  </si>
-  <si>
-    <t>REGISTRO</t>
-  </si>
-  <si>
-    <t>Alessandro</t>
-  </si>
-  <si>
-    <t>Salario</t>
-  </si>
-  <si>
-    <t>Tempo de empresa</t>
-  </si>
-  <si>
-    <t>Nome_hospede</t>
-  </si>
-  <si>
-    <t>Hospede_idade</t>
-  </si>
-  <si>
-    <t>Hospede+estado_civil</t>
-  </si>
-  <si>
-    <t>Nome_funcionario</t>
   </si>
   <si>
     <t>Depósitos</t>
@@ -496,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +421,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -813,19 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -853,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,8 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -963,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -992,18 +890,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFF4B084"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1013,170 +912,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5059C7D6-3151-2C46-8A3B-32A45B4D6E90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3302000" y="2959100"/>
-          <a:ext cx="1651000" cy="1905000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Elbow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D869BB-1888-4B46-A375-A1FB57C19F25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3917950" y="869950"/>
-          <a:ext cx="2120900" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764370B9-E139-5942-BB5F-66F76534EBE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5943600" y="1828800"/>
-          <a:ext cx="1663700" cy="1333500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1444,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>26</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
@@ -1495,53 +1230,53 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1553,24 +1288,24 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="8"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1579,7 +1314,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1588,7 +1323,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1597,7 +1332,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1606,7 +1341,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1619,173 +1354,173 @@
         <v>3</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>118</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="50"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1801,22 +1536,22 @@
         <v>6</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1824,7 +1559,7 @@
       <c r="L27" s="38"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1854,7 +1589,7 @@
       <c r="L28" s="38"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1862,19 +1597,19 @@
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1882,27 +1617,27 @@
       <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1910,27 +1645,27 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1938,94 +1673,94 @@
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2034,13 +1769,13 @@
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2051,9 +1786,9 @@
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2066,7 +1801,7 @@
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2079,7 +1814,7 @@
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2092,7 +1827,7 @@
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2105,7 +1840,7 @@
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2118,7 +1853,7 @@
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2131,7 +1866,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2144,7 +1879,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -2157,9 +1892,9 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="50"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="11" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="11"/>
@@ -2174,67 +1909,67 @@
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C47" s="33"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="56"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="1"/>
       <c r="C48" s="34"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="59"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="58"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="59"/>
+        <v>19</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="34"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="44"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="43"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="9"/>
@@ -2246,24 +1981,24 @@
     </row>
     <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C53" s="12"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
+      <c r="A57" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G12">
@@ -2285,579 +2020,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2CCBF0-D9C1-A448-9FBB-00F9D31B9AE4}">
-  <dimension ref="B3:P49"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D3" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="61"/>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1">
-        <v>123</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1">
-        <v>24</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="1">
-        <v>123</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1">
-        <v>50000</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="39">
-        <v>43857</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="61"/>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="1">
-        <v>321</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="1">
-        <v>321</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="1">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="1">
-        <v>987654</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="39">
-        <v>44223</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="1">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="1">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D25:E25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2993,19 +2162,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF34B243-44A1-4083-89A9-F5629D0F74A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0C12A3-ABE1-457E-B7DD-9937F1A21C70}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3029,9 +2194,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0C12A3-ABE1-457E-B7DD-9937F1A21C70}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF34B243-44A1-4083-89A9-F5629D0F74A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>